--- a/data_year/zb/社会服务/医疗救助.xlsx
+++ b/data_year/zb/社会服务/医疗救助.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,239 +468,126 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.6</v>
+        <v>1019.2429</v>
       </c>
       <c r="C2" t="n">
-        <v>57000</v>
+        <v>834810</v>
       </c>
       <c r="D2" t="n">
-        <v>654.9</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>4615.419</v>
+      </c>
+      <c r="E2" t="n">
+        <v>460.0756</v>
+      </c>
       <c r="F2" t="n">
-        <v>32000</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>495203</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1461.2455</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.3</v>
+        <v>1471.8336</v>
       </c>
       <c r="C3" t="n">
-        <v>114198.1</v>
+        <v>1199610.4</v>
       </c>
       <c r="D3" t="n">
-        <v>1317.1</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>4825.2969</v>
+      </c>
+      <c r="E3" t="n">
+        <v>672.1549</v>
+      </c>
       <c r="F3" t="n">
-        <v>81240.89999999999</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>676408.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1549.8059</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>377.097</v>
+        <v>1483.8</v>
       </c>
       <c r="C4" t="n">
-        <v>280508</v>
+        <v>1329104.8</v>
       </c>
       <c r="D4" t="n">
-        <v>2517.3413</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>4490.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>689.9</v>
+      </c>
       <c r="F4" t="n">
-        <v>144379.2</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>708801.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1387.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>759.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>383000</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>3432.4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>443.6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>297000</v>
-      </c>
+        <v>4868.7404</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>642.6</v>
+        <v>1490.0867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>729.98</v>
-      </c>
-      <c r="C6" t="n">
-        <v>646245.8</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>4059.138</v>
-      </c>
-      <c r="E6" t="n">
-        <v>410.3725</v>
-      </c>
-      <c r="F6" t="n">
-        <v>412043.1</v>
-      </c>
+        <v>5021.7322</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1095.8912</v>
+        <v>1701.9896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1019.2429</v>
-      </c>
-      <c r="C7" t="n">
-        <v>834810</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>4615.419</v>
-      </c>
-      <c r="E7" t="n">
-        <v>460.0756</v>
-      </c>
-      <c r="F7" t="n">
-        <v>495203</v>
-      </c>
+        <v>4546.8717</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>1461.2455</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1471.8336</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1199610.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4825.2969</v>
-      </c>
-      <c r="E8" t="n">
-        <v>672.1549</v>
-      </c>
-      <c r="F8" t="n">
-        <v>676408.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1549.8059</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1483.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1329104.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4490.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>689.9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>708801.6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1387.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>4868.7404</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>1490.0867</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>5021.7322</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>1701.9896</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>4546.8717</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
         <v>1666.1431</v>
       </c>
     </row>
